--- a/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701CBE39-C0C8-473A-BD7E-FC30F35AB617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RuneDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="RuneExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -266,13 +267,82 @@
   <si>
     <t>Images/Tribe/Logo_DEVIL</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_Undead</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_Elf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 궁수 룬입니다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>기본 마법공격력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>기본 체력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>기본 방어력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>기본 마법저항력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>희귀 공격력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>희귀 마법공격형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>희귀 체력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>희귀 방어력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>희귀 마법저항력형 성기사 룬입니다.</t>
+  </si>
+  <si>
+    <t>기본 성기사 룬입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +384,40 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -384,6 +488,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -598,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -624,7 +733,7 @@
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="13" max="14" width="7.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,6 +783,9 @@
         <v>13</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -694,15 +806,15 @@
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
     </row>
-    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1000</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -740,7 +852,10 @@
       <c r="O2" s="10">
         <v>0</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>79</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -752,10 +867,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -793,7 +908,8 @@
       <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -805,10 +921,10 @@
         <v>1002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -845,6 +961,10 @@
       </c>
       <c r="O4" s="10">
         <v>0</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -852,10 +972,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -892,6 +1012,9 @@
       </c>
       <c r="O5" s="10">
         <v>0</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -899,10 +1022,10 @@
         <v>1004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -939,6 +1062,9 @@
       </c>
       <c r="O6" s="10">
         <v>0</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -946,10 +1072,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -986,6 +1112,9 @@
       </c>
       <c r="O7" s="10">
         <v>0</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -993,10 +1122,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -1033,6 +1162,9 @@
       </c>
       <c r="O8" s="10">
         <v>0</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -1040,10 +1172,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1080,6 +1212,9 @@
       </c>
       <c r="O9" s="10">
         <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -1087,10 +1222,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -1127,6 +1262,9 @@
       </c>
       <c r="O10" s="10">
         <v>0</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -1134,10 +1272,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
@@ -1174,6 +1312,9 @@
       </c>
       <c r="O11" s="10">
         <v>0</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -1181,10 +1322,10 @@
         <v>1010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
@@ -1222,10 +1363,61 @@
       <c r="O12" s="10">
         <v>0</v>
       </c>
+      <c r="Q12" s="15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>1011</v>
+        <v>2000</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>28</v>
@@ -1233,7 +1425,55 @@
     </row>
     <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>1012</v>
+        <v>2001</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>29</v>
@@ -1241,7 +1481,55 @@
     </row>
     <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>1013</v>
+        <v>2002</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>30</v>
@@ -1249,7 +1537,55 @@
     </row>
     <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>1014</v>
+        <v>2003</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>30</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>31</v>
@@ -1257,44 +1593,143 @@
     </row>
     <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>1015</v>
+        <v>2004</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11">
+        <v>3</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>10</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="S18" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>5</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>15</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2</v>
+      </c>
+      <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" s="9">
@@ -1311,37 +1746,43 @@
       </c>
       <c r="O19" s="10">
         <v>0</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
         <v>2000</v>
       </c>
-      <c r="F20" s="8">
-        <v>5</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
         <v>10</v>
       </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="H20" s="11">
+        <v>15</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2</v>
+      </c>
+      <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" s="9">
@@ -1359,35 +1800,40 @@
       <c r="O20" s="10">
         <v>0</v>
       </c>
-      <c r="Q20" s="12"/>
+      <c r="P20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="8">
         <v>2000</v>
       </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8">
-        <v>10</v>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>60</v>
       </c>
       <c r="I21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
@@ -1407,35 +1853,40 @@
       <c r="O21" s="10">
         <v>0</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="P21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="8">
         <v>2000</v>
       </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>30</v>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
       </c>
       <c r="I22" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
@@ -1455,38 +1906,43 @@
       <c r="O22" s="10">
         <v>0</v>
       </c>
-      <c r="Q22" s="12"/>
+      <c r="P22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8">
         <v>2000</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>10</v>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -1503,320 +1959,44 @@
       <c r="O23" s="10">
         <v>0</v>
       </c>
-      <c r="Q23" s="13"/>
+      <c r="P23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>10</v>
-      </c>
-      <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
-        <v>3</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
       <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F25" s="11">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>15</v>
-      </c>
-      <c r="I25" s="11">
-        <v>2</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0</v>
-      </c>
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>10</v>
-      </c>
-      <c r="H26" s="11">
-        <v>15</v>
-      </c>
-      <c r="I26" s="11">
-        <v>2</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
       <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>60</v>
-      </c>
-      <c r="I27" s="11">
-        <v>2</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
       <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>5</v>
-      </c>
-      <c r="J28" s="11">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>2</v>
-      </c>
-      <c r="J29" s="11">
-        <v>4</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
+      <c r="A29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>2011</v>
-      </c>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>2012</v>
-      </c>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>2013</v>
-      </c>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>2015</v>
-      </c>
-    </row>
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>3000</v>
@@ -1825,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -1872,7 +2052,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -1919,7 +2099,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -1966,7 +2146,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -2013,7 +2193,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -2060,7 +2240,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -2107,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
@@ -2154,7 +2334,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
@@ -2201,7 +2381,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
@@ -2248,7 +2428,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
@@ -2295,7 +2475,7 @@
         <v>54</v>
       </c>
       <c r="C46" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -2364,10 +2544,10 @@
         <v>4000</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C53" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -2411,10 +2591,10 @@
         <v>4001</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C54" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -2458,10 +2638,10 @@
         <v>4002</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C55" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
@@ -2505,10 +2685,10 @@
         <v>4003</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C56" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -2552,10 +2732,10 @@
         <v>4004</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C57" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -2599,10 +2779,10 @@
         <v>4005</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C58" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -2646,10 +2826,10 @@
         <v>4006</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C59" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -2693,10 +2873,10 @@
         <v>4007</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C60" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -2740,10 +2920,10 @@
         <v>4008</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C61" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -2787,10 +2967,10 @@
         <v>4009</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C62" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -2834,10 +3014,10 @@
         <v>4010</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C63" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
@@ -2909,7 +3089,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="8">
         <v>1</v>
@@ -2956,7 +3136,7 @@
         <v>67</v>
       </c>
       <c r="C71" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -3003,7 +3183,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -3050,7 +3230,7 @@
         <v>69</v>
       </c>
       <c r="C73" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -3097,7 +3277,7 @@
         <v>70</v>
       </c>
       <c r="C74" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
@@ -3144,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -3191,7 +3371,7 @@
         <v>72</v>
       </c>
       <c r="C76" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
@@ -3238,7 +3418,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="8">
         <v>2</v>
@@ -3285,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="8">
         <v>2</v>
@@ -3332,7 +3512,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
@@ -3379,7 +3559,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>

--- a/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922D44D-5841-48C0-94FF-74E4CF844FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940459D8-1E0E-476C-9CF7-5A4066694244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RuneExcelDatas" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:AF566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="Q115" sqref="Q115"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940459D8-1E0E-476C-9CF7-5A4066694244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E453C4C8-7153-4202-AE68-03A61258C2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RuneExcelDatas" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:AF566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="H227" sqref="H227"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454:C566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>44</v>
@@ -796,7 +796,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>44</v>
@@ -850,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>44</v>
@@ -901,7 +901,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>44</v>
@@ -951,7 +951,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>44</v>
@@ -1001,7 +1001,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>44</v>
@@ -1051,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>44</v>
@@ -1101,7 +1101,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>44</v>
@@ -1151,7 +1151,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>44</v>
@@ -1201,7 +1201,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
@@ -1251,7 +1251,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
@@ -1301,7 +1301,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
@@ -1357,7 +1357,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
@@ -1413,7 +1413,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>53</v>
@@ -1469,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>53</v>
@@ -1525,7 +1525,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>53</v>
@@ -1579,7 +1579,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>53</v>
@@ -1635,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>54</v>
@@ -1688,7 +1688,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>54</v>
@@ -1741,7 +1741,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>54</v>
@@ -1794,7 +1794,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>54</v>
@@ -1847,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>54</v>
@@ -1900,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>54</v>
@@ -1948,7 +1948,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>54</v>
@@ -1996,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>54</v>
@@ -2044,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>55</v>
@@ -2092,7 +2092,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>55</v>
@@ -2140,7 +2140,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>55</v>
@@ -2187,7 +2187,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>55</v>
@@ -2234,7 +2234,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>55</v>
@@ -2281,7 +2281,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>55</v>
@@ -2328,7 +2328,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>55</v>
@@ -2375,7 +2375,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>55</v>
@@ -2422,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>56</v>
@@ -2469,7 +2469,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>56</v>
@@ -2516,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>56</v>
@@ -2563,7 +2563,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>56</v>
@@ -2610,7 +2610,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>56</v>
@@ -2657,7 +2657,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>56</v>
@@ -2704,7 +2704,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>56</v>
@@ -2751,7 +2751,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>56</v>
@@ -2798,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>57</v>
@@ -2845,7 +2845,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>57</v>
@@ -2892,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>57</v>
@@ -2939,7 +2939,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>57</v>
@@ -2986,7 +2986,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>57</v>
@@ -3033,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>57</v>
@@ -3080,7 +3080,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>57</v>
@@ -3127,7 +3127,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>57</v>
@@ -3174,7 +3174,7 @@
         <v>45</v>
       </c>
       <c r="C51" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>58</v>
@@ -3221,7 +3221,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>58</v>
@@ -3268,7 +3268,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>58</v>
@@ -3315,7 +3315,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>58</v>
@@ -3362,7 +3362,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>58</v>
@@ -3409,7 +3409,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>58</v>
@@ -3456,7 +3456,7 @@
         <v>51</v>
       </c>
       <c r="C57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>58</v>
@@ -3503,7 +3503,7 @@
         <v>52</v>
       </c>
       <c r="C58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>58</v>
@@ -3550,7 +3550,7 @@
         <v>45</v>
       </c>
       <c r="C59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>59</v>
@@ -3597,7 +3597,7 @@
         <v>46</v>
       </c>
       <c r="C60" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>59</v>
@@ -3644,7 +3644,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>59</v>
@@ -3691,7 +3691,7 @@
         <v>48</v>
       </c>
       <c r="C62" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>59</v>
@@ -3738,7 +3738,7 @@
         <v>49</v>
       </c>
       <c r="C63" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>59</v>
@@ -3785,7 +3785,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>59</v>
@@ -3832,7 +3832,7 @@
         <v>51</v>
       </c>
       <c r="C65" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>59</v>
@@ -3879,7 +3879,7 @@
         <v>52</v>
       </c>
       <c r="C66" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>59</v>
@@ -3926,7 +3926,7 @@
         <v>45</v>
       </c>
       <c r="C67" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>60</v>
@@ -3973,7 +3973,7 @@
         <v>46</v>
       </c>
       <c r="C68" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>60</v>
@@ -4020,7 +4020,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>60</v>
@@ -4067,7 +4067,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>60</v>
@@ -4114,7 +4114,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>60</v>
@@ -4161,7 +4161,7 @@
         <v>50</v>
       </c>
       <c r="C72" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>60</v>
@@ -4208,7 +4208,7 @@
         <v>51</v>
       </c>
       <c r="C73" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>60</v>
@@ -4255,7 +4255,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>60</v>
@@ -4302,7 +4302,7 @@
         <v>45</v>
       </c>
       <c r="C75" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>61</v>
@@ -4349,7 +4349,7 @@
         <v>46</v>
       </c>
       <c r="C76" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>61</v>
@@ -4396,7 +4396,7 @@
         <v>47</v>
       </c>
       <c r="C77" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>61</v>
@@ -4443,7 +4443,7 @@
         <v>48</v>
       </c>
       <c r="C78" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>61</v>
@@ -4490,7 +4490,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>61</v>
@@ -4537,7 +4537,7 @@
         <v>50</v>
       </c>
       <c r="C80" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>61</v>
@@ -4584,7 +4584,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>61</v>
@@ -4631,7 +4631,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>61</v>
@@ -4678,7 +4678,7 @@
         <v>45</v>
       </c>
       <c r="C83" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>62</v>
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>62</v>
@@ -4772,7 +4772,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>62</v>
@@ -4819,7 +4819,7 @@
         <v>48</v>
       </c>
       <c r="C86" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>62</v>
@@ -4866,7 +4866,7 @@
         <v>49</v>
       </c>
       <c r="C87" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>62</v>
@@ -4913,7 +4913,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>62</v>
@@ -4960,7 +4960,7 @@
         <v>51</v>
       </c>
       <c r="C89" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>62</v>
@@ -5007,7 +5007,7 @@
         <v>52</v>
       </c>
       <c r="C90" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>62</v>
@@ -5054,7 +5054,7 @@
         <v>45</v>
       </c>
       <c r="C91" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>63</v>
@@ -5101,7 +5101,7 @@
         <v>46</v>
       </c>
       <c r="C92" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>63</v>
@@ -5148,7 +5148,7 @@
         <v>47</v>
       </c>
       <c r="C93" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>63</v>
@@ -5195,7 +5195,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>63</v>
@@ -5242,7 +5242,7 @@
         <v>49</v>
       </c>
       <c r="C95" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>63</v>
@@ -5289,7 +5289,7 @@
         <v>50</v>
       </c>
       <c r="C96" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>63</v>
@@ -5336,7 +5336,7 @@
         <v>51</v>
       </c>
       <c r="C97" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>63</v>
@@ -5383,7 +5383,7 @@
         <v>52</v>
       </c>
       <c r="C98" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>63</v>
@@ -5430,7 +5430,7 @@
         <v>45</v>
       </c>
       <c r="C99" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>64</v>
@@ -5477,7 +5477,7 @@
         <v>46</v>
       </c>
       <c r="C100" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>64</v>
@@ -5524,7 +5524,7 @@
         <v>47</v>
       </c>
       <c r="C101" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>64</v>
@@ -5571,7 +5571,7 @@
         <v>48</v>
       </c>
       <c r="C102" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>64</v>
@@ -5618,7 +5618,7 @@
         <v>49</v>
       </c>
       <c r="C103" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>64</v>
@@ -5665,7 +5665,7 @@
         <v>50</v>
       </c>
       <c r="C104" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>64</v>
@@ -5712,7 +5712,7 @@
         <v>51</v>
       </c>
       <c r="C105" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>64</v>
@@ -5759,7 +5759,7 @@
         <v>52</v>
       </c>
       <c r="C106" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>64</v>
@@ -5806,7 +5806,7 @@
         <v>45</v>
       </c>
       <c r="C107" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>65</v>
@@ -5853,7 +5853,7 @@
         <v>46</v>
       </c>
       <c r="C108" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>65</v>
@@ -5900,7 +5900,7 @@
         <v>47</v>
       </c>
       <c r="C109" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>65</v>
@@ -5947,7 +5947,7 @@
         <v>48</v>
       </c>
       <c r="C110" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>65</v>
@@ -5994,7 +5994,7 @@
         <v>49</v>
       </c>
       <c r="C111" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>65</v>
@@ -6041,7 +6041,7 @@
         <v>50</v>
       </c>
       <c r="C112" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>65</v>
@@ -6088,7 +6088,7 @@
         <v>51</v>
       </c>
       <c r="C113" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>65</v>
@@ -6135,7 +6135,7 @@
         <v>52</v>
       </c>
       <c r="C114" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>65</v>
@@ -6182,7 +6182,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>44</v>
@@ -6232,7 +6232,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>44</v>
@@ -6282,7 +6282,7 @@
         <v>46</v>
       </c>
       <c r="C117" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>44</v>
@@ -6332,7 +6332,7 @@
         <v>47</v>
       </c>
       <c r="C118" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>44</v>
@@ -6379,7 +6379,7 @@
         <v>48</v>
       </c>
       <c r="C119" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>44</v>
@@ -6426,7 +6426,7 @@
         <v>49</v>
       </c>
       <c r="C120" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>44</v>
@@ -6473,7 +6473,7 @@
         <v>50</v>
       </c>
       <c r="C121" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>44</v>
@@ -6520,7 +6520,7 @@
         <v>51</v>
       </c>
       <c r="C122" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>44</v>
@@ -6567,7 +6567,7 @@
         <v>52</v>
       </c>
       <c r="C123" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>44</v>
@@ -6614,7 +6614,7 @@
         <v>45</v>
       </c>
       <c r="C124" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>53</v>
@@ -6661,7 +6661,7 @@
         <v>46</v>
       </c>
       <c r="C125" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>53</v>
@@ -6708,7 +6708,7 @@
         <v>47</v>
       </c>
       <c r="C126" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>53</v>
@@ -6755,7 +6755,7 @@
         <v>48</v>
       </c>
       <c r="C127" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>53</v>
@@ -6802,7 +6802,7 @@
         <v>49</v>
       </c>
       <c r="C128" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>53</v>
@@ -6849,7 +6849,7 @@
         <v>50</v>
       </c>
       <c r="C129" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>53</v>
@@ -6896,7 +6896,7 @@
         <v>51</v>
       </c>
       <c r="C130" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>53</v>
@@ -6943,7 +6943,7 @@
         <v>52</v>
       </c>
       <c r="C131" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>53</v>
@@ -6990,7 +6990,7 @@
         <v>45</v>
       </c>
       <c r="C132" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>54</v>
@@ -7037,7 +7037,7 @@
         <v>46</v>
       </c>
       <c r="C133" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>54</v>
@@ -7084,7 +7084,7 @@
         <v>47</v>
       </c>
       <c r="C134" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>54</v>
@@ -7131,7 +7131,7 @@
         <v>48</v>
       </c>
       <c r="C135" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>54</v>
@@ -7178,7 +7178,7 @@
         <v>49</v>
       </c>
       <c r="C136" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>54</v>
@@ -7225,7 +7225,7 @@
         <v>50</v>
       </c>
       <c r="C137" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>54</v>
@@ -7272,7 +7272,7 @@
         <v>51</v>
       </c>
       <c r="C138" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>54</v>
@@ -7319,7 +7319,7 @@
         <v>52</v>
       </c>
       <c r="C139" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>54</v>
@@ -7366,7 +7366,7 @@
         <v>45</v>
       </c>
       <c r="C140" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>55</v>
@@ -7413,7 +7413,7 @@
         <v>46</v>
       </c>
       <c r="C141" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>55</v>
@@ -7460,7 +7460,7 @@
         <v>47</v>
       </c>
       <c r="C142" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>55</v>
@@ -7507,7 +7507,7 @@
         <v>48</v>
       </c>
       <c r="C143" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>55</v>
@@ -7554,7 +7554,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>55</v>
@@ -7601,7 +7601,7 @@
         <v>50</v>
       </c>
       <c r="C145" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>55</v>
@@ -7648,7 +7648,7 @@
         <v>51</v>
       </c>
       <c r="C146" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>55</v>
@@ -7695,7 +7695,7 @@
         <v>52</v>
       </c>
       <c r="C147" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>55</v>
@@ -7742,7 +7742,7 @@
         <v>45</v>
       </c>
       <c r="C148" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>56</v>
@@ -7789,7 +7789,7 @@
         <v>46</v>
       </c>
       <c r="C149" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>56</v>
@@ -7836,7 +7836,7 @@
         <v>47</v>
       </c>
       <c r="C150" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>56</v>
@@ -7883,7 +7883,7 @@
         <v>48</v>
       </c>
       <c r="C151" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" s="14" t="s">
         <v>56</v>
@@ -7930,7 +7930,7 @@
         <v>49</v>
       </c>
       <c r="C152" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>56</v>
@@ -7977,7 +7977,7 @@
         <v>50</v>
       </c>
       <c r="C153" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>56</v>
@@ -8024,7 +8024,7 @@
         <v>51</v>
       </c>
       <c r="C154" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>56</v>
@@ -8071,7 +8071,7 @@
         <v>52</v>
       </c>
       <c r="C155" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>56</v>
@@ -8118,7 +8118,7 @@
         <v>45</v>
       </c>
       <c r="C156" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>57</v>
@@ -8165,7 +8165,7 @@
         <v>46</v>
       </c>
       <c r="C157" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>57</v>
@@ -8212,7 +8212,7 @@
         <v>47</v>
       </c>
       <c r="C158" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>57</v>
@@ -8259,7 +8259,7 @@
         <v>48</v>
       </c>
       <c r="C159" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>57</v>
@@ -8306,7 +8306,7 @@
         <v>49</v>
       </c>
       <c r="C160" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>57</v>
@@ -8353,7 +8353,7 @@
         <v>50</v>
       </c>
       <c r="C161" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>57</v>
@@ -8400,7 +8400,7 @@
         <v>51</v>
       </c>
       <c r="C162" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>57</v>
@@ -8447,7 +8447,7 @@
         <v>52</v>
       </c>
       <c r="C163" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>57</v>
@@ -8494,7 +8494,7 @@
         <v>45</v>
       </c>
       <c r="C164" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>58</v>
@@ -8541,7 +8541,7 @@
         <v>46</v>
       </c>
       <c r="C165" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>58</v>
@@ -8588,7 +8588,7 @@
         <v>47</v>
       </c>
       <c r="C166" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>58</v>
@@ -8635,7 +8635,7 @@
         <v>48</v>
       </c>
       <c r="C167" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>58</v>
@@ -8682,7 +8682,7 @@
         <v>49</v>
       </c>
       <c r="C168" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>58</v>
@@ -8729,7 +8729,7 @@
         <v>50</v>
       </c>
       <c r="C169" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>58</v>
@@ -8776,7 +8776,7 @@
         <v>51</v>
       </c>
       <c r="C170" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>58</v>
@@ -8823,7 +8823,7 @@
         <v>52</v>
       </c>
       <c r="C171" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>58</v>
@@ -8870,7 +8870,7 @@
         <v>45</v>
       </c>
       <c r="C172" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>59</v>
@@ -8917,7 +8917,7 @@
         <v>46</v>
       </c>
       <c r="C173" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>59</v>
@@ -8964,7 +8964,7 @@
         <v>47</v>
       </c>
       <c r="C174" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>59</v>
@@ -9011,7 +9011,7 @@
         <v>48</v>
       </c>
       <c r="C175" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" s="14" t="s">
         <v>59</v>
@@ -9058,7 +9058,7 @@
         <v>49</v>
       </c>
       <c r="C176" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>59</v>
@@ -9105,7 +9105,7 @@
         <v>50</v>
       </c>
       <c r="C177" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>59</v>
@@ -9152,7 +9152,7 @@
         <v>51</v>
       </c>
       <c r="C178" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>59</v>
@@ -9199,7 +9199,7 @@
         <v>52</v>
       </c>
       <c r="C179" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="14" t="s">
         <v>59</v>
@@ -9246,7 +9246,7 @@
         <v>45</v>
       </c>
       <c r="C180" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" s="14" t="s">
         <v>60</v>
@@ -9293,7 +9293,7 @@
         <v>46</v>
       </c>
       <c r="C181" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>60</v>
@@ -9340,7 +9340,7 @@
         <v>47</v>
       </c>
       <c r="C182" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>60</v>
@@ -9387,7 +9387,7 @@
         <v>48</v>
       </c>
       <c r="C183" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>60</v>
@@ -9434,7 +9434,7 @@
         <v>49</v>
       </c>
       <c r="C184" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>60</v>
@@ -9481,7 +9481,7 @@
         <v>50</v>
       </c>
       <c r="C185" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" s="14" t="s">
         <v>60</v>
@@ -9528,7 +9528,7 @@
         <v>51</v>
       </c>
       <c r="C186" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>60</v>
@@ -9575,7 +9575,7 @@
         <v>52</v>
       </c>
       <c r="C187" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" s="14" t="s">
         <v>60</v>
@@ -9622,7 +9622,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" s="14" t="s">
         <v>61</v>
@@ -9669,7 +9669,7 @@
         <v>46</v>
       </c>
       <c r="C189" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" s="14" t="s">
         <v>61</v>
@@ -9716,7 +9716,7 @@
         <v>47</v>
       </c>
       <c r="C190" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>61</v>
@@ -9763,7 +9763,7 @@
         <v>48</v>
       </c>
       <c r="C191" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" s="14" t="s">
         <v>61</v>
@@ -9810,7 +9810,7 @@
         <v>49</v>
       </c>
       <c r="C192" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" s="14" t="s">
         <v>61</v>
@@ -9857,7 +9857,7 @@
         <v>50</v>
       </c>
       <c r="C193" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" s="14" t="s">
         <v>61</v>
@@ -9904,7 +9904,7 @@
         <v>51</v>
       </c>
       <c r="C194" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" s="14" t="s">
         <v>61</v>
@@ -9951,7 +9951,7 @@
         <v>52</v>
       </c>
       <c r="C195" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="14" t="s">
         <v>61</v>
@@ -9998,7 +9998,7 @@
         <v>45</v>
       </c>
       <c r="C196" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" s="14" t="s">
         <v>62</v>
@@ -10045,7 +10045,7 @@
         <v>46</v>
       </c>
       <c r="C197" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197" s="14" t="s">
         <v>62</v>
@@ -10092,7 +10092,7 @@
         <v>47</v>
       </c>
       <c r="C198" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>62</v>
@@ -10139,7 +10139,7 @@
         <v>48</v>
       </c>
       <c r="C199" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" s="14" t="s">
         <v>62</v>
@@ -10186,7 +10186,7 @@
         <v>49</v>
       </c>
       <c r="C200" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" s="14" t="s">
         <v>62</v>
@@ -10233,7 +10233,7 @@
         <v>50</v>
       </c>
       <c r="C201" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>62</v>
@@ -10280,7 +10280,7 @@
         <v>51</v>
       </c>
       <c r="C202" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" s="14" t="s">
         <v>62</v>
@@ -10327,7 +10327,7 @@
         <v>52</v>
       </c>
       <c r="C203" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="14" t="s">
         <v>62</v>
@@ -10374,7 +10374,7 @@
         <v>45</v>
       </c>
       <c r="C204" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="14" t="s">
         <v>63</v>
@@ -10421,7 +10421,7 @@
         <v>46</v>
       </c>
       <c r="C205" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" s="14" t="s">
         <v>63</v>
@@ -10468,7 +10468,7 @@
         <v>47</v>
       </c>
       <c r="C206" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206" s="14" t="s">
         <v>63</v>
@@ -10515,7 +10515,7 @@
         <v>48</v>
       </c>
       <c r="C207" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="14" t="s">
         <v>63</v>
@@ -10562,7 +10562,7 @@
         <v>49</v>
       </c>
       <c r="C208" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" s="14" t="s">
         <v>63</v>
@@ -10609,7 +10609,7 @@
         <v>50</v>
       </c>
       <c r="C209" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209" s="14" t="s">
         <v>63</v>
@@ -10656,7 +10656,7 @@
         <v>51</v>
       </c>
       <c r="C210" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="14" t="s">
         <v>63</v>
@@ -10703,7 +10703,7 @@
         <v>52</v>
       </c>
       <c r="C211" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" s="14" t="s">
         <v>63</v>
@@ -10750,7 +10750,7 @@
         <v>45</v>
       </c>
       <c r="C212" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="14" t="s">
         <v>64</v>
@@ -10797,7 +10797,7 @@
         <v>46</v>
       </c>
       <c r="C213" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="14" t="s">
         <v>64</v>
@@ -10844,7 +10844,7 @@
         <v>47</v>
       </c>
       <c r="C214" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="14" t="s">
         <v>64</v>
@@ -10891,7 +10891,7 @@
         <v>48</v>
       </c>
       <c r="C215" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" s="14" t="s">
         <v>64</v>
@@ -10938,7 +10938,7 @@
         <v>49</v>
       </c>
       <c r="C216" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" s="14" t="s">
         <v>64</v>
@@ -10985,7 +10985,7 @@
         <v>50</v>
       </c>
       <c r="C217" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217" s="14" t="s">
         <v>64</v>
@@ -11032,7 +11032,7 @@
         <v>51</v>
       </c>
       <c r="C218" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="14" t="s">
         <v>64</v>
@@ -11079,7 +11079,7 @@
         <v>52</v>
       </c>
       <c r="C219" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="14" t="s">
         <v>64</v>
@@ -11126,7 +11126,7 @@
         <v>45</v>
       </c>
       <c r="C220" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="14" t="s">
         <v>65</v>
@@ -11173,7 +11173,7 @@
         <v>46</v>
       </c>
       <c r="C221" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" s="14" t="s">
         <v>65</v>
@@ -11220,7 +11220,7 @@
         <v>47</v>
       </c>
       <c r="C222" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="14" t="s">
         <v>65</v>
@@ -11267,7 +11267,7 @@
         <v>48</v>
       </c>
       <c r="C223" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" s="14" t="s">
         <v>65</v>
@@ -11314,7 +11314,7 @@
         <v>49</v>
       </c>
       <c r="C224" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" s="14" t="s">
         <v>65</v>
@@ -11361,7 +11361,7 @@
         <v>50</v>
       </c>
       <c r="C225" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" s="14" t="s">
         <v>65</v>
@@ -11408,7 +11408,7 @@
         <v>51</v>
       </c>
       <c r="C226" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>65</v>
@@ -11455,7 +11455,7 @@
         <v>52</v>
       </c>
       <c r="C227" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" s="14" t="s">
         <v>65</v>
@@ -11502,7 +11502,7 @@
         <v>22</v>
       </c>
       <c r="C228" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" s="14" t="s">
         <v>44</v>
@@ -11549,7 +11549,7 @@
         <v>45</v>
       </c>
       <c r="C229" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" s="14" t="s">
         <v>44</v>
@@ -11596,7 +11596,7 @@
         <v>46</v>
       </c>
       <c r="C230" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>44</v>
@@ -11643,7 +11643,7 @@
         <v>47</v>
       </c>
       <c r="C231" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" s="14" t="s">
         <v>44</v>
@@ -11690,7 +11690,7 @@
         <v>48</v>
       </c>
       <c r="C232" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>44</v>
@@ -11737,7 +11737,7 @@
         <v>49</v>
       </c>
       <c r="C233" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233" s="14" t="s">
         <v>44</v>
@@ -11784,7 +11784,7 @@
         <v>50</v>
       </c>
       <c r="C234" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>44</v>
@@ -11831,7 +11831,7 @@
         <v>51</v>
       </c>
       <c r="C235" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235" s="14" t="s">
         <v>44</v>
@@ -11878,7 +11878,7 @@
         <v>52</v>
       </c>
       <c r="C236" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" s="14" t="s">
         <v>44</v>
@@ -11925,7 +11925,7 @@
         <v>45</v>
       </c>
       <c r="C237" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>53</v>
@@ -11972,7 +11972,7 @@
         <v>46</v>
       </c>
       <c r="C238" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>53</v>
@@ -12019,7 +12019,7 @@
         <v>47</v>
       </c>
       <c r="C239" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D239" s="14" t="s">
         <v>53</v>
@@ -12066,7 +12066,7 @@
         <v>48</v>
       </c>
       <c r="C240" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>53</v>
@@ -12113,7 +12113,7 @@
         <v>49</v>
       </c>
       <c r="C241" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>53</v>
@@ -12160,7 +12160,7 @@
         <v>50</v>
       </c>
       <c r="C242" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>53</v>
@@ -12207,7 +12207,7 @@
         <v>51</v>
       </c>
       <c r="C243" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D243" s="14" t="s">
         <v>53</v>
@@ -12254,7 +12254,7 @@
         <v>52</v>
       </c>
       <c r="C244" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" s="14" t="s">
         <v>53</v>
@@ -12301,7 +12301,7 @@
         <v>45</v>
       </c>
       <c r="C245" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" s="14" t="s">
         <v>54</v>
@@ -12348,7 +12348,7 @@
         <v>46</v>
       </c>
       <c r="C246" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246" s="14" t="s">
         <v>54</v>
@@ -12395,7 +12395,7 @@
         <v>47</v>
       </c>
       <c r="C247" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247" s="14" t="s">
         <v>54</v>
@@ -12442,7 +12442,7 @@
         <v>48</v>
       </c>
       <c r="C248" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>54</v>
@@ -12489,7 +12489,7 @@
         <v>49</v>
       </c>
       <c r="C249" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" s="14" t="s">
         <v>54</v>
@@ -12536,7 +12536,7 @@
         <v>50</v>
       </c>
       <c r="C250" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" s="14" t="s">
         <v>54</v>
@@ -12583,7 +12583,7 @@
         <v>51</v>
       </c>
       <c r="C251" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D251" s="14" t="s">
         <v>54</v>
@@ -12630,7 +12630,7 @@
         <v>52</v>
       </c>
       <c r="C252" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="14" t="s">
         <v>54</v>
@@ -12677,7 +12677,7 @@
         <v>45</v>
       </c>
       <c r="C253" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D253" s="14" t="s">
         <v>55</v>
@@ -12724,7 +12724,7 @@
         <v>46</v>
       </c>
       <c r="C254" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" s="14" t="s">
         <v>55</v>
@@ -12771,7 +12771,7 @@
         <v>47</v>
       </c>
       <c r="C255" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>55</v>
@@ -12818,7 +12818,7 @@
         <v>48</v>
       </c>
       <c r="C256" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" s="14" t="s">
         <v>55</v>
@@ -12865,7 +12865,7 @@
         <v>49</v>
       </c>
       <c r="C257" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257" s="14" t="s">
         <v>55</v>
@@ -12912,7 +12912,7 @@
         <v>50</v>
       </c>
       <c r="C258" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258" s="14" t="s">
         <v>55</v>
@@ -12959,7 +12959,7 @@
         <v>51</v>
       </c>
       <c r="C259" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259" s="14" t="s">
         <v>55</v>
@@ -13006,7 +13006,7 @@
         <v>52</v>
       </c>
       <c r="C260" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" s="14" t="s">
         <v>55</v>
@@ -13053,7 +13053,7 @@
         <v>45</v>
       </c>
       <c r="C261" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261" s="14" t="s">
         <v>56</v>
@@ -13100,7 +13100,7 @@
         <v>46</v>
       </c>
       <c r="C262" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D262" s="14" t="s">
         <v>56</v>
@@ -13147,7 +13147,7 @@
         <v>47</v>
       </c>
       <c r="C263" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263" s="14" t="s">
         <v>56</v>
@@ -13194,7 +13194,7 @@
         <v>48</v>
       </c>
       <c r="C264" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" s="14" t="s">
         <v>56</v>
@@ -13241,7 +13241,7 @@
         <v>49</v>
       </c>
       <c r="C265" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265" s="14" t="s">
         <v>56</v>
@@ -13288,7 +13288,7 @@
         <v>50</v>
       </c>
       <c r="C266" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" s="14" t="s">
         <v>56</v>
@@ -13335,7 +13335,7 @@
         <v>51</v>
       </c>
       <c r="C267" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" s="14" t="s">
         <v>56</v>
@@ -13382,7 +13382,7 @@
         <v>52</v>
       </c>
       <c r="C268" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" s="14" t="s">
         <v>56</v>
@@ -13429,7 +13429,7 @@
         <v>45</v>
       </c>
       <c r="C269" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D269" s="14" t="s">
         <v>57</v>
@@ -13476,7 +13476,7 @@
         <v>46</v>
       </c>
       <c r="C270" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" s="14" t="s">
         <v>57</v>
@@ -13523,7 +13523,7 @@
         <v>47</v>
       </c>
       <c r="C271" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="14" t="s">
         <v>57</v>
@@ -13570,7 +13570,7 @@
         <v>48</v>
       </c>
       <c r="C272" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D272" s="14" t="s">
         <v>57</v>
@@ -13617,7 +13617,7 @@
         <v>49</v>
       </c>
       <c r="C273" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" s="14" t="s">
         <v>57</v>
@@ -13664,7 +13664,7 @@
         <v>50</v>
       </c>
       <c r="C274" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D274" s="14" t="s">
         <v>57</v>
@@ -13711,7 +13711,7 @@
         <v>51</v>
       </c>
       <c r="C275" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275" s="14" t="s">
         <v>57</v>
@@ -13758,7 +13758,7 @@
         <v>52</v>
       </c>
       <c r="C276" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276" s="14" t="s">
         <v>57</v>
@@ -16813,7 +16813,7 @@
         <v>23</v>
       </c>
       <c r="C341" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" s="14" t="s">
         <v>44</v>
@@ -16860,7 +16860,7 @@
         <v>45</v>
       </c>
       <c r="C342" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D342" s="14" t="s">
         <v>44</v>
@@ -16907,7 +16907,7 @@
         <v>46</v>
       </c>
       <c r="C343" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D343" s="14" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>47</v>
       </c>
       <c r="C344" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D344" s="14" t="s">
         <v>44</v>
@@ -17001,7 +17001,7 @@
         <v>48</v>
       </c>
       <c r="C345" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" s="14" t="s">
         <v>44</v>
@@ -17048,7 +17048,7 @@
         <v>49</v>
       </c>
       <c r="C346" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D346" s="14" t="s">
         <v>44</v>
@@ -17095,7 +17095,7 @@
         <v>50</v>
       </c>
       <c r="C347" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D347" s="14" t="s">
         <v>44</v>
@@ -17142,7 +17142,7 @@
         <v>51</v>
       </c>
       <c r="C348" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D348" s="14" t="s">
         <v>44</v>
@@ -17189,7 +17189,7 @@
         <v>52</v>
       </c>
       <c r="C349" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349" s="14" t="s">
         <v>44</v>
@@ -17236,7 +17236,7 @@
         <v>45</v>
       </c>
       <c r="C350" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D350" s="14" t="s">
         <v>53</v>
@@ -17283,7 +17283,7 @@
         <v>46</v>
       </c>
       <c r="C351" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D351" s="14" t="s">
         <v>53</v>
@@ -17330,7 +17330,7 @@
         <v>47</v>
       </c>
       <c r="C352" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D352" s="14" t="s">
         <v>53</v>
@@ -17377,7 +17377,7 @@
         <v>48</v>
       </c>
       <c r="C353" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D353" s="14" t="s">
         <v>53</v>
@@ -17424,7 +17424,7 @@
         <v>49</v>
       </c>
       <c r="C354" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D354" s="14" t="s">
         <v>53</v>
@@ -17471,7 +17471,7 @@
         <v>50</v>
       </c>
       <c r="C355" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355" s="14" t="s">
         <v>53</v>
@@ -17518,7 +17518,7 @@
         <v>51</v>
       </c>
       <c r="C356" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D356" s="14" t="s">
         <v>53</v>
@@ -17565,7 +17565,7 @@
         <v>52</v>
       </c>
       <c r="C357" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="14" t="s">
         <v>53</v>
@@ -17612,7 +17612,7 @@
         <v>45</v>
       </c>
       <c r="C358" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D358" s="14" t="s">
         <v>54</v>
@@ -17659,7 +17659,7 @@
         <v>46</v>
       </c>
       <c r="C359" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D359" s="14" t="s">
         <v>54</v>
@@ -17706,7 +17706,7 @@
         <v>47</v>
       </c>
       <c r="C360" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D360" s="14" t="s">
         <v>54</v>
@@ -17753,7 +17753,7 @@
         <v>48</v>
       </c>
       <c r="C361" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361" s="14" t="s">
         <v>54</v>
@@ -17800,7 +17800,7 @@
         <v>49</v>
       </c>
       <c r="C362" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D362" s="14" t="s">
         <v>54</v>
@@ -17847,7 +17847,7 @@
         <v>50</v>
       </c>
       <c r="C363" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D363" s="14" t="s">
         <v>54</v>
@@ -17894,7 +17894,7 @@
         <v>51</v>
       </c>
       <c r="C364" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D364" s="14" t="s">
         <v>54</v>
@@ -17941,7 +17941,7 @@
         <v>52</v>
       </c>
       <c r="C365" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D365" s="14" t="s">
         <v>54</v>
@@ -17988,7 +17988,7 @@
         <v>45</v>
       </c>
       <c r="C366" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" s="14" t="s">
         <v>55</v>
@@ -18035,7 +18035,7 @@
         <v>46</v>
       </c>
       <c r="C367" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" s="14" t="s">
         <v>55</v>
@@ -18082,7 +18082,7 @@
         <v>47</v>
       </c>
       <c r="C368" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D368" s="14" t="s">
         <v>55</v>
@@ -18129,7 +18129,7 @@
         <v>48</v>
       </c>
       <c r="C369" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D369" s="14" t="s">
         <v>55</v>
@@ -18176,7 +18176,7 @@
         <v>49</v>
       </c>
       <c r="C370" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D370" s="14" t="s">
         <v>55</v>
@@ -18223,7 +18223,7 @@
         <v>50</v>
       </c>
       <c r="C371" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D371" s="14" t="s">
         <v>55</v>
@@ -18270,7 +18270,7 @@
         <v>51</v>
       </c>
       <c r="C372" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D372" s="14" t="s">
         <v>55</v>
@@ -18317,7 +18317,7 @@
         <v>52</v>
       </c>
       <c r="C373" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D373" s="14" t="s">
         <v>55</v>
@@ -18364,7 +18364,7 @@
         <v>45</v>
       </c>
       <c r="C374" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D374" s="14" t="s">
         <v>56</v>
@@ -18411,7 +18411,7 @@
         <v>46</v>
       </c>
       <c r="C375" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D375" s="14" t="s">
         <v>56</v>
@@ -18458,7 +18458,7 @@
         <v>47</v>
       </c>
       <c r="C376" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D376" s="14" t="s">
         <v>56</v>
@@ -18505,7 +18505,7 @@
         <v>48</v>
       </c>
       <c r="C377" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377" s="14" t="s">
         <v>56</v>
@@ -18552,7 +18552,7 @@
         <v>49</v>
       </c>
       <c r="C378" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D378" s="14" t="s">
         <v>56</v>
@@ -18599,7 +18599,7 @@
         <v>50</v>
       </c>
       <c r="C379" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D379" s="14" t="s">
         <v>56</v>
@@ -18646,7 +18646,7 @@
         <v>51</v>
       </c>
       <c r="C380" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D380" s="14" t="s">
         <v>56</v>
@@ -18693,7 +18693,7 @@
         <v>52</v>
       </c>
       <c r="C381" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D381" s="14" t="s">
         <v>56</v>
@@ -18740,7 +18740,7 @@
         <v>45</v>
       </c>
       <c r="C382" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D382" s="14" t="s">
         <v>57</v>
@@ -18787,7 +18787,7 @@
         <v>46</v>
       </c>
       <c r="C383" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D383" s="14" t="s">
         <v>57</v>
@@ -18834,7 +18834,7 @@
         <v>47</v>
       </c>
       <c r="C384" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D384" s="14" t="s">
         <v>57</v>
@@ -18881,7 +18881,7 @@
         <v>48</v>
       </c>
       <c r="C385" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D385" s="14" t="s">
         <v>57</v>
@@ -18928,7 +18928,7 @@
         <v>49</v>
       </c>
       <c r="C386" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D386" s="14" t="s">
         <v>57</v>
@@ -18975,7 +18975,7 @@
         <v>50</v>
       </c>
       <c r="C387" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D387" s="14" t="s">
         <v>57</v>
@@ -19022,7 +19022,7 @@
         <v>51</v>
       </c>
       <c r="C388" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D388" s="14" t="s">
         <v>57</v>
@@ -19069,7 +19069,7 @@
         <v>52</v>
       </c>
       <c r="C389" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D389" s="14" t="s">
         <v>57</v>
@@ -19116,7 +19116,7 @@
         <v>45</v>
       </c>
       <c r="C390" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D390" s="14" t="s">
         <v>58</v>
@@ -19163,7 +19163,7 @@
         <v>46</v>
       </c>
       <c r="C391" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D391" s="14" t="s">
         <v>58</v>
@@ -19210,7 +19210,7 @@
         <v>47</v>
       </c>
       <c r="C392" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D392" s="14" t="s">
         <v>58</v>
@@ -19257,7 +19257,7 @@
         <v>48</v>
       </c>
       <c r="C393" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D393" s="14" t="s">
         <v>58</v>
@@ -19304,7 +19304,7 @@
         <v>49</v>
       </c>
       <c r="C394" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D394" s="14" t="s">
         <v>58</v>
@@ -19351,7 +19351,7 @@
         <v>50</v>
       </c>
       <c r="C395" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D395" s="14" t="s">
         <v>58</v>
@@ -19398,7 +19398,7 @@
         <v>51</v>
       </c>
       <c r="C396" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D396" s="14" t="s">
         <v>58</v>
@@ -19445,7 +19445,7 @@
         <v>52</v>
       </c>
       <c r="C397" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D397" s="14" t="s">
         <v>58</v>
@@ -19492,7 +19492,7 @@
         <v>45</v>
       </c>
       <c r="C398" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D398" s="14" t="s">
         <v>59</v>
@@ -19539,7 +19539,7 @@
         <v>46</v>
       </c>
       <c r="C399" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D399" s="14" t="s">
         <v>59</v>
@@ -19586,7 +19586,7 @@
         <v>47</v>
       </c>
       <c r="C400" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D400" s="14" t="s">
         <v>59</v>
@@ -19633,7 +19633,7 @@
         <v>48</v>
       </c>
       <c r="C401" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D401" s="14" t="s">
         <v>59</v>
@@ -19680,7 +19680,7 @@
         <v>49</v>
       </c>
       <c r="C402" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>59</v>
@@ -19727,7 +19727,7 @@
         <v>50</v>
       </c>
       <c r="C403" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D403" s="14" t="s">
         <v>59</v>
@@ -19774,7 +19774,7 @@
         <v>51</v>
       </c>
       <c r="C404" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D404" s="14" t="s">
         <v>59</v>
@@ -19821,7 +19821,7 @@
         <v>52</v>
       </c>
       <c r="C405" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D405" s="14" t="s">
         <v>59</v>
@@ -19868,7 +19868,7 @@
         <v>45</v>
       </c>
       <c r="C406" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D406" s="14" t="s">
         <v>60</v>
@@ -19915,7 +19915,7 @@
         <v>46</v>
       </c>
       <c r="C407" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D407" s="14" t="s">
         <v>60</v>
@@ -19962,7 +19962,7 @@
         <v>47</v>
       </c>
       <c r="C408" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D408" s="14" t="s">
         <v>60</v>
@@ -20009,7 +20009,7 @@
         <v>48</v>
       </c>
       <c r="C409" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D409" s="14" t="s">
         <v>60</v>
@@ -20056,7 +20056,7 @@
         <v>49</v>
       </c>
       <c r="C410" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D410" s="14" t="s">
         <v>60</v>
@@ -20103,7 +20103,7 @@
         <v>50</v>
       </c>
       <c r="C411" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D411" s="14" t="s">
         <v>60</v>
@@ -20150,7 +20150,7 @@
         <v>51</v>
       </c>
       <c r="C412" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D412" s="14" t="s">
         <v>60</v>
@@ -20197,7 +20197,7 @@
         <v>52</v>
       </c>
       <c r="C413" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D413" s="14" t="s">
         <v>60</v>
@@ -20244,7 +20244,7 @@
         <v>45</v>
       </c>
       <c r="C414" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D414" s="14" t="s">
         <v>61</v>
@@ -20291,7 +20291,7 @@
         <v>46</v>
       </c>
       <c r="C415" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D415" s="14" t="s">
         <v>61</v>
@@ -20338,7 +20338,7 @@
         <v>47</v>
       </c>
       <c r="C416" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D416" s="14" t="s">
         <v>61</v>
@@ -20385,7 +20385,7 @@
         <v>48</v>
       </c>
       <c r="C417" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D417" s="14" t="s">
         <v>61</v>
@@ -20432,7 +20432,7 @@
         <v>49</v>
       </c>
       <c r="C418" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D418" s="14" t="s">
         <v>61</v>
@@ -20479,7 +20479,7 @@
         <v>50</v>
       </c>
       <c r="C419" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D419" s="14" t="s">
         <v>61</v>
@@ -20526,7 +20526,7 @@
         <v>51</v>
       </c>
       <c r="C420" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D420" s="14" t="s">
         <v>61</v>
@@ -20573,7 +20573,7 @@
         <v>52</v>
       </c>
       <c r="C421" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D421" s="14" t="s">
         <v>61</v>
@@ -20620,7 +20620,7 @@
         <v>45</v>
       </c>
       <c r="C422" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D422" s="14" t="s">
         <v>62</v>
@@ -20667,7 +20667,7 @@
         <v>46</v>
       </c>
       <c r="C423" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423" s="14" t="s">
         <v>62</v>
@@ -20714,7 +20714,7 @@
         <v>47</v>
       </c>
       <c r="C424" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D424" s="14" t="s">
         <v>62</v>
@@ -20761,7 +20761,7 @@
         <v>48</v>
       </c>
       <c r="C425" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D425" s="14" t="s">
         <v>62</v>
@@ -20808,7 +20808,7 @@
         <v>49</v>
       </c>
       <c r="C426" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D426" s="14" t="s">
         <v>62</v>
@@ -20855,7 +20855,7 @@
         <v>50</v>
       </c>
       <c r="C427" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D427" s="14" t="s">
         <v>62</v>
@@ -20902,7 +20902,7 @@
         <v>51</v>
       </c>
       <c r="C428" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>62</v>
@@ -20949,7 +20949,7 @@
         <v>52</v>
       </c>
       <c r="C429" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D429" s="14" t="s">
         <v>62</v>
@@ -20996,7 +20996,7 @@
         <v>45</v>
       </c>
       <c r="C430" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D430" s="14" t="s">
         <v>63</v>
@@ -21043,7 +21043,7 @@
         <v>46</v>
       </c>
       <c r="C431" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D431" s="14" t="s">
         <v>63</v>
@@ -21090,7 +21090,7 @@
         <v>47</v>
       </c>
       <c r="C432" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D432" s="14" t="s">
         <v>63</v>
@@ -21137,7 +21137,7 @@
         <v>48</v>
       </c>
       <c r="C433" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D433" s="14" t="s">
         <v>63</v>
@@ -21184,7 +21184,7 @@
         <v>49</v>
       </c>
       <c r="C434" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D434" s="14" t="s">
         <v>63</v>
@@ -21231,7 +21231,7 @@
         <v>50</v>
       </c>
       <c r="C435" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D435" s="14" t="s">
         <v>63</v>
@@ -21278,7 +21278,7 @@
         <v>51</v>
       </c>
       <c r="C436" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D436" s="14" t="s">
         <v>63</v>
@@ -21325,7 +21325,7 @@
         <v>52</v>
       </c>
       <c r="C437" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D437" s="14" t="s">
         <v>63</v>
@@ -21372,7 +21372,7 @@
         <v>45</v>
       </c>
       <c r="C438" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D438" s="14" t="s">
         <v>64</v>
@@ -21419,7 +21419,7 @@
         <v>46</v>
       </c>
       <c r="C439" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D439" s="14" t="s">
         <v>64</v>
@@ -21466,7 +21466,7 @@
         <v>47</v>
       </c>
       <c r="C440" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D440" s="14" t="s">
         <v>64</v>
@@ -21513,7 +21513,7 @@
         <v>48</v>
       </c>
       <c r="C441" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D441" s="14" t="s">
         <v>64</v>
@@ -21560,7 +21560,7 @@
         <v>49</v>
       </c>
       <c r="C442" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D442" s="14" t="s">
         <v>64</v>
@@ -21607,7 +21607,7 @@
         <v>50</v>
       </c>
       <c r="C443" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D443" s="14" t="s">
         <v>64</v>
@@ -21654,7 +21654,7 @@
         <v>51</v>
       </c>
       <c r="C444" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D444" s="14" t="s">
         <v>64</v>
@@ -21701,7 +21701,7 @@
         <v>52</v>
       </c>
       <c r="C445" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D445" s="14" t="s">
         <v>64</v>
@@ -21748,7 +21748,7 @@
         <v>45</v>
       </c>
       <c r="C446" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D446" s="14" t="s">
         <v>65</v>
@@ -21795,7 +21795,7 @@
         <v>46</v>
       </c>
       <c r="C447" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D447" s="14" t="s">
         <v>65</v>
@@ -21842,7 +21842,7 @@
         <v>47</v>
       </c>
       <c r="C448" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D448" s="14" t="s">
         <v>65</v>
@@ -21889,7 +21889,7 @@
         <v>48</v>
       </c>
       <c r="C449" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D449" s="14" t="s">
         <v>65</v>
@@ -21936,7 +21936,7 @@
         <v>49</v>
       </c>
       <c r="C450" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D450" s="14" t="s">
         <v>65</v>
@@ -21983,7 +21983,7 @@
         <v>50</v>
       </c>
       <c r="C451" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D451" s="14" t="s">
         <v>65</v>
@@ -22030,7 +22030,7 @@
         <v>51</v>
       </c>
       <c r="C452" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D452" s="14" t="s">
         <v>65</v>
@@ -22077,7 +22077,7 @@
         <v>52</v>
       </c>
       <c r="C453" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D453" s="14" t="s">
         <v>65</v>
@@ -22124,7 +22124,7 @@
         <v>24</v>
       </c>
       <c r="C454" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D454" s="14" t="s">
         <v>44</v>
@@ -22171,7 +22171,7 @@
         <v>45</v>
       </c>
       <c r="C455" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D455" s="14" t="s">
         <v>44</v>
@@ -22218,7 +22218,7 @@
         <v>46</v>
       </c>
       <c r="C456" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D456" s="14" t="s">
         <v>44</v>
@@ -22265,7 +22265,7 @@
         <v>47</v>
       </c>
       <c r="C457" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D457" s="14" t="s">
         <v>44</v>
@@ -22312,7 +22312,7 @@
         <v>48</v>
       </c>
       <c r="C458" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D458" s="14" t="s">
         <v>44</v>
@@ -22359,7 +22359,7 @@
         <v>49</v>
       </c>
       <c r="C459" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D459" s="14" t="s">
         <v>44</v>
@@ -22406,7 +22406,7 @@
         <v>50</v>
       </c>
       <c r="C460" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D460" s="14" t="s">
         <v>44</v>
@@ -22453,7 +22453,7 @@
         <v>51</v>
       </c>
       <c r="C461" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D461" s="14" t="s">
         <v>44</v>
@@ -22500,7 +22500,7 @@
         <v>52</v>
       </c>
       <c r="C462" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D462" s="14" t="s">
         <v>44</v>
@@ -22547,7 +22547,7 @@
         <v>45</v>
       </c>
       <c r="C463" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D463" s="14" t="s">
         <v>53</v>
@@ -22594,7 +22594,7 @@
         <v>46</v>
       </c>
       <c r="C464" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D464" s="14" t="s">
         <v>53</v>
@@ -22641,7 +22641,7 @@
         <v>47</v>
       </c>
       <c r="C465" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D465" s="14" t="s">
         <v>53</v>
@@ -22688,7 +22688,7 @@
         <v>48</v>
       </c>
       <c r="C466" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D466" s="14" t="s">
         <v>53</v>
@@ -22735,7 +22735,7 @@
         <v>49</v>
       </c>
       <c r="C467" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D467" s="14" t="s">
         <v>53</v>
@@ -22782,7 +22782,7 @@
         <v>50</v>
       </c>
       <c r="C468" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D468" s="14" t="s">
         <v>53</v>
@@ -22829,7 +22829,7 @@
         <v>51</v>
       </c>
       <c r="C469" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D469" s="14" t="s">
         <v>53</v>
@@ -22876,7 +22876,7 @@
         <v>52</v>
       </c>
       <c r="C470" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D470" s="14" t="s">
         <v>53</v>
@@ -22923,7 +22923,7 @@
         <v>45</v>
       </c>
       <c r="C471" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D471" s="14" t="s">
         <v>54</v>
@@ -22970,7 +22970,7 @@
         <v>46</v>
       </c>
       <c r="C472" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D472" s="14" t="s">
         <v>54</v>
@@ -23017,7 +23017,7 @@
         <v>47</v>
       </c>
       <c r="C473" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D473" s="14" t="s">
         <v>54</v>
@@ -23064,7 +23064,7 @@
         <v>48</v>
       </c>
       <c r="C474" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D474" s="14" t="s">
         <v>54</v>
@@ -23111,7 +23111,7 @@
         <v>49</v>
       </c>
       <c r="C475" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D475" s="14" t="s">
         <v>54</v>
@@ -23158,7 +23158,7 @@
         <v>50</v>
       </c>
       <c r="C476" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D476" s="14" t="s">
         <v>54</v>
@@ -23205,7 +23205,7 @@
         <v>51</v>
       </c>
       <c r="C477" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D477" s="14" t="s">
         <v>54</v>
@@ -23252,7 +23252,7 @@
         <v>52</v>
       </c>
       <c r="C478" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D478" s="14" t="s">
         <v>54</v>
@@ -23299,7 +23299,7 @@
         <v>45</v>
       </c>
       <c r="C479" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D479" s="14" t="s">
         <v>55</v>
@@ -23346,7 +23346,7 @@
         <v>46</v>
       </c>
       <c r="C480" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D480" s="14" t="s">
         <v>55</v>
@@ -23393,7 +23393,7 @@
         <v>47</v>
       </c>
       <c r="C481" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D481" s="14" t="s">
         <v>55</v>
@@ -23440,7 +23440,7 @@
         <v>48</v>
       </c>
       <c r="C482" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D482" s="14" t="s">
         <v>55</v>
@@ -23487,7 +23487,7 @@
         <v>49</v>
       </c>
       <c r="C483" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D483" s="14" t="s">
         <v>55</v>
@@ -23534,7 +23534,7 @@
         <v>50</v>
       </c>
       <c r="C484" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D484" s="14" t="s">
         <v>55</v>
@@ -23581,7 +23581,7 @@
         <v>51</v>
       </c>
       <c r="C485" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D485" s="14" t="s">
         <v>55</v>
@@ -23628,7 +23628,7 @@
         <v>52</v>
       </c>
       <c r="C486" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D486" s="14" t="s">
         <v>55</v>
@@ -23675,7 +23675,7 @@
         <v>45</v>
       </c>
       <c r="C487" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D487" s="14" t="s">
         <v>56</v>
@@ -23722,7 +23722,7 @@
         <v>46</v>
       </c>
       <c r="C488" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D488" s="14" t="s">
         <v>56</v>
@@ -23769,7 +23769,7 @@
         <v>47</v>
       </c>
       <c r="C489" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D489" s="14" t="s">
         <v>56</v>
@@ -23816,7 +23816,7 @@
         <v>48</v>
       </c>
       <c r="C490" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D490" s="14" t="s">
         <v>56</v>
@@ -23863,7 +23863,7 @@
         <v>49</v>
       </c>
       <c r="C491" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D491" s="14" t="s">
         <v>56</v>
@@ -23910,7 +23910,7 @@
         <v>50</v>
       </c>
       <c r="C492" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D492" s="14" t="s">
         <v>56</v>
@@ -23957,7 +23957,7 @@
         <v>51</v>
       </c>
       <c r="C493" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D493" s="14" t="s">
         <v>56</v>
@@ -24004,7 +24004,7 @@
         <v>52</v>
       </c>
       <c r="C494" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D494" s="14" t="s">
         <v>56</v>
@@ -24051,7 +24051,7 @@
         <v>45</v>
       </c>
       <c r="C495" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D495" s="14" t="s">
         <v>57</v>
@@ -24098,7 +24098,7 @@
         <v>46</v>
       </c>
       <c r="C496" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D496" s="14" t="s">
         <v>57</v>
@@ -24145,7 +24145,7 @@
         <v>47</v>
       </c>
       <c r="C497" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D497" s="14" t="s">
         <v>57</v>
@@ -24192,7 +24192,7 @@
         <v>48</v>
       </c>
       <c r="C498" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D498" s="14" t="s">
         <v>57</v>
@@ -24239,7 +24239,7 @@
         <v>49</v>
       </c>
       <c r="C499" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D499" s="14" t="s">
         <v>57</v>
@@ -24286,7 +24286,7 @@
         <v>50</v>
       </c>
       <c r="C500" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D500" s="14" t="s">
         <v>57</v>
@@ -24333,7 +24333,7 @@
         <v>51</v>
       </c>
       <c r="C501" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D501" s="14" t="s">
         <v>57</v>
@@ -24380,7 +24380,7 @@
         <v>52</v>
       </c>
       <c r="C502" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D502" s="14" t="s">
         <v>57</v>
@@ -24427,7 +24427,7 @@
         <v>45</v>
       </c>
       <c r="C503" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D503" s="14" t="s">
         <v>58</v>
@@ -24474,7 +24474,7 @@
         <v>46</v>
       </c>
       <c r="C504" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D504" s="14" t="s">
         <v>58</v>
@@ -24521,7 +24521,7 @@
         <v>47</v>
       </c>
       <c r="C505" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D505" s="14" t="s">
         <v>58</v>
@@ -24568,7 +24568,7 @@
         <v>48</v>
       </c>
       <c r="C506" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D506" s="14" t="s">
         <v>58</v>
@@ -24615,7 +24615,7 @@
         <v>49</v>
       </c>
       <c r="C507" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D507" s="14" t="s">
         <v>58</v>
@@ -24662,7 +24662,7 @@
         <v>50</v>
       </c>
       <c r="C508" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D508" s="14" t="s">
         <v>58</v>
@@ -24709,7 +24709,7 @@
         <v>51</v>
       </c>
       <c r="C509" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D509" s="14" t="s">
         <v>58</v>
@@ -24756,7 +24756,7 @@
         <v>52</v>
       </c>
       <c r="C510" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D510" s="14" t="s">
         <v>58</v>
@@ -24803,7 +24803,7 @@
         <v>45</v>
       </c>
       <c r="C511" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D511" s="14" t="s">
         <v>59</v>
@@ -24850,7 +24850,7 @@
         <v>46</v>
       </c>
       <c r="C512" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D512" s="14" t="s">
         <v>59</v>
@@ -24897,7 +24897,7 @@
         <v>47</v>
       </c>
       <c r="C513" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D513" s="14" t="s">
         <v>59</v>
@@ -24944,7 +24944,7 @@
         <v>48</v>
       </c>
       <c r="C514" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D514" s="14" t="s">
         <v>59</v>
@@ -24991,7 +24991,7 @@
         <v>49</v>
       </c>
       <c r="C515" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D515" s="14" t="s">
         <v>59</v>
@@ -25038,7 +25038,7 @@
         <v>50</v>
       </c>
       <c r="C516" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D516" s="14" t="s">
         <v>59</v>
@@ -25085,7 +25085,7 @@
         <v>51</v>
       </c>
       <c r="C517" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D517" s="14" t="s">
         <v>59</v>
@@ -25132,7 +25132,7 @@
         <v>52</v>
       </c>
       <c r="C518" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D518" s="14" t="s">
         <v>59</v>
@@ -25179,7 +25179,7 @@
         <v>45</v>
       </c>
       <c r="C519" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D519" s="14" t="s">
         <v>60</v>
@@ -25226,7 +25226,7 @@
         <v>46</v>
       </c>
       <c r="C520" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D520" s="14" t="s">
         <v>60</v>
@@ -25273,7 +25273,7 @@
         <v>47</v>
       </c>
       <c r="C521" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D521" s="14" t="s">
         <v>60</v>
@@ -25320,7 +25320,7 @@
         <v>48</v>
       </c>
       <c r="C522" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D522" s="14" t="s">
         <v>60</v>
@@ -25367,7 +25367,7 @@
         <v>49</v>
       </c>
       <c r="C523" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D523" s="14" t="s">
         <v>60</v>
@@ -25414,7 +25414,7 @@
         <v>50</v>
       </c>
       <c r="C524" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D524" s="14" t="s">
         <v>60</v>
@@ -25461,7 +25461,7 @@
         <v>51</v>
       </c>
       <c r="C525" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D525" s="14" t="s">
         <v>60</v>
@@ -25508,7 +25508,7 @@
         <v>52</v>
       </c>
       <c r="C526" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D526" s="14" t="s">
         <v>60</v>
@@ -25555,7 +25555,7 @@
         <v>45</v>
       </c>
       <c r="C527" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D527" s="14" t="s">
         <v>61</v>
@@ -25602,7 +25602,7 @@
         <v>46</v>
       </c>
       <c r="C528" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D528" s="14" t="s">
         <v>61</v>
@@ -25649,7 +25649,7 @@
         <v>47</v>
       </c>
       <c r="C529" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D529" s="14" t="s">
         <v>61</v>
@@ -25696,7 +25696,7 @@
         <v>48</v>
       </c>
       <c r="C530" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D530" s="14" t="s">
         <v>61</v>
@@ -25743,7 +25743,7 @@
         <v>49</v>
       </c>
       <c r="C531" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D531" s="14" t="s">
         <v>61</v>
@@ -25790,7 +25790,7 @@
         <v>50</v>
       </c>
       <c r="C532" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D532" s="14" t="s">
         <v>61</v>
@@ -25837,7 +25837,7 @@
         <v>51</v>
       </c>
       <c r="C533" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D533" s="14" t="s">
         <v>61</v>
@@ -25884,7 +25884,7 @@
         <v>52</v>
       </c>
       <c r="C534" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D534" s="14" t="s">
         <v>61</v>
@@ -25931,7 +25931,7 @@
         <v>45</v>
       </c>
       <c r="C535" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D535" s="14" t="s">
         <v>62</v>
@@ -25978,7 +25978,7 @@
         <v>46</v>
       </c>
       <c r="C536" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D536" s="14" t="s">
         <v>62</v>
@@ -26025,7 +26025,7 @@
         <v>47</v>
       </c>
       <c r="C537" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D537" s="14" t="s">
         <v>62</v>
@@ -26072,7 +26072,7 @@
         <v>48</v>
       </c>
       <c r="C538" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D538" s="14" t="s">
         <v>62</v>
@@ -26119,7 +26119,7 @@
         <v>49</v>
       </c>
       <c r="C539" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D539" s="14" t="s">
         <v>62</v>
@@ -26166,7 +26166,7 @@
         <v>50</v>
       </c>
       <c r="C540" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D540" s="14" t="s">
         <v>62</v>
@@ -26213,7 +26213,7 @@
         <v>51</v>
       </c>
       <c r="C541" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D541" s="14" t="s">
         <v>62</v>
@@ -26260,7 +26260,7 @@
         <v>52</v>
       </c>
       <c r="C542" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D542" s="14" t="s">
         <v>62</v>
@@ -26307,7 +26307,7 @@
         <v>45</v>
       </c>
       <c r="C543" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D543" s="14" t="s">
         <v>63</v>
@@ -26354,7 +26354,7 @@
         <v>46</v>
       </c>
       <c r="C544" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D544" s="14" t="s">
         <v>63</v>
@@ -26401,7 +26401,7 @@
         <v>47</v>
       </c>
       <c r="C545" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D545" s="14" t="s">
         <v>63</v>
@@ -26448,7 +26448,7 @@
         <v>48</v>
       </c>
       <c r="C546" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D546" s="14" t="s">
         <v>63</v>
@@ -26495,7 +26495,7 @@
         <v>49</v>
       </c>
       <c r="C547" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D547" s="14" t="s">
         <v>63</v>
@@ -26542,7 +26542,7 @@
         <v>50</v>
       </c>
       <c r="C548" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D548" s="14" t="s">
         <v>63</v>
@@ -26589,7 +26589,7 @@
         <v>51</v>
       </c>
       <c r="C549" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D549" s="14" t="s">
         <v>63</v>
@@ -26636,7 +26636,7 @@
         <v>52</v>
       </c>
       <c r="C550" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D550" s="14" t="s">
         <v>63</v>
@@ -26683,7 +26683,7 @@
         <v>45</v>
       </c>
       <c r="C551" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D551" s="14" t="s">
         <v>64</v>
@@ -26730,7 +26730,7 @@
         <v>46</v>
       </c>
       <c r="C552" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D552" s="14" t="s">
         <v>64</v>
@@ -26777,7 +26777,7 @@
         <v>47</v>
       </c>
       <c r="C553" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D553" s="14" t="s">
         <v>64</v>
@@ -26824,7 +26824,7 @@
         <v>48</v>
       </c>
       <c r="C554" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D554" s="14" t="s">
         <v>64</v>
@@ -26871,7 +26871,7 @@
         <v>49</v>
       </c>
       <c r="C555" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D555" s="14" t="s">
         <v>64</v>
@@ -26918,7 +26918,7 @@
         <v>50</v>
       </c>
       <c r="C556" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D556" s="14" t="s">
         <v>64</v>
@@ -26965,7 +26965,7 @@
         <v>51</v>
       </c>
       <c r="C557" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D557" s="14" t="s">
         <v>64</v>
@@ -27012,7 +27012,7 @@
         <v>52</v>
       </c>
       <c r="C558" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D558" s="14" t="s">
         <v>64</v>
@@ -27059,7 +27059,7 @@
         <v>45</v>
       </c>
       <c r="C559" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D559" s="14" t="s">
         <v>65</v>
@@ -27106,7 +27106,7 @@
         <v>46</v>
       </c>
       <c r="C560" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D560" s="14" t="s">
         <v>65</v>
@@ -27153,7 +27153,7 @@
         <v>47</v>
       </c>
       <c r="C561" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D561" s="14" t="s">
         <v>65</v>
@@ -27200,7 +27200,7 @@
         <v>48</v>
       </c>
       <c r="C562" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D562" s="14" t="s">
         <v>65</v>
@@ -27247,7 +27247,7 @@
         <v>49</v>
       </c>
       <c r="C563" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D563" s="14" t="s">
         <v>65</v>
@@ -27294,7 +27294,7 @@
         <v>50</v>
       </c>
       <c r="C564" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D564" s="14" t="s">
         <v>65</v>
@@ -27341,7 +27341,7 @@
         <v>51</v>
       </c>
       <c r="C565" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D565" s="14" t="s">
         <v>65</v>
@@ -27388,7 +27388,7 @@
         <v>52</v>
       </c>
       <c r="C566" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D566" s="14" t="s">
         <v>65</v>

--- a/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/RuneDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E453C4C8-7153-4202-AE68-03A61258C2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A9D4B-73BE-4FA9-9A11-0C150C3CFC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RuneExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -639,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:AF566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454:C566"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,7 +834,9 @@
       <c r="O3" s="13">
         <v>0</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
@@ -888,9 +890,11 @@
       <c r="O4" s="13">
         <v>0</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="7" t="s">
-        <v>27</v>
+      <c r="P4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -939,8 +943,11 @@
       <c r="O5" s="13">
         <v>0</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
+      <c r="P5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -989,6 +996,9 @@
       <c r="O6" s="13">
         <v>0</v>
       </c>
+      <c r="P6" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1039,6 +1049,9 @@
       <c r="O7" s="13">
         <v>0</v>
       </c>
+      <c r="P7" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
       </c>
@@ -1089,6 +1102,9 @@
       <c r="O8" s="13">
         <v>0</v>
       </c>
+      <c r="P8" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="Q8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1139,6 +1155,9 @@
       <c r="O9" s="13">
         <v>0</v>
       </c>
+      <c r="P9" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="Q9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1189,6 +1208,9 @@
       <c r="O10" s="13">
         <v>0</v>
       </c>
+      <c r="P10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="Q10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1239,6 +1261,9 @@
       <c r="O11" s="13">
         <v>0</v>
       </c>
+      <c r="P11" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="Q11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1289,6 +1314,9 @@
       <c r="O12" s="13">
         <v>0</v>
       </c>
+      <c r="P12" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="Q12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>28</v>
